--- a/Car3_locations.xlsx
+++ b/Car3_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faculty\GP\Graduation-Project-V2V\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DCD8E4-1292-4E89-92E1-0202426EF787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DDFD35-EA2B-4191-88F5-CA9637A7F6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4C155F31-073D-4F8B-BCAD-867262C5A4C8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4C155F31-073D-4F8B-BCAD-867262C5A4C8}"/>
   </bookViews>
   <sheets>
     <sheet name="car3" sheetId="2" r:id="rId1"/>
@@ -1119,10 +1119,10 @@
     <tableColumn id="16" xr3:uid="{9FCC54FF-DE91-471A-BEE9-92723DDD7661}" uniqueName="16" name="Column16" queryTableFieldId="16"/>
     <tableColumn id="17" xr3:uid="{9316D529-A5B3-4B0F-87A0-5D0D58D393FB}" uniqueName="17" name="Column17" queryTableFieldId="17" dataDxfId="3"/>
     <tableColumn id="18" xr3:uid="{B015F9A9-26EF-4360-808C-2A32D62DC8D8}" uniqueName="18" name="Column18" queryTableFieldId="18" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{20B7AB1C-2B08-4A72-B4CC-DD6241C7AB82}" uniqueName="19" name="locationy2" queryTableFieldId="19" dataDxfId="0">
+    <tableColumn id="19" xr3:uid="{20B7AB1C-2B08-4A72-B4CC-DD6241C7AB82}" uniqueName="19" name="locationy2" queryTableFieldId="19" dataDxfId="1">
       <calculatedColumnFormula>LEFT(H1, LEN(H1)-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{0034661A-6305-4913-B7A3-21515B060807}" uniqueName="20" name="locationx2" queryTableFieldId="20" dataDxfId="1">
+    <tableColumn id="20" xr3:uid="{0034661A-6305-4913-B7A3-21515B060807}" uniqueName="20" name="locationx2" queryTableFieldId="20" dataDxfId="0">
       <calculatedColumnFormula>LEFT(F1, LEN(F1)-2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1429,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228FA8AD-6E12-4400-86EB-62B9EE70D4D3}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="K41" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1449,8 +1449,8 @@
     <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.77734375" customWidth="1"/>
-    <col min="20" max="20" width="18.77734375" customWidth="1"/>
+    <col min="19" max="19" width="31.33203125" customWidth="1"/>
+    <col min="20" max="20" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -1633,11 +1633,11 @@
         <v>27</v>
       </c>
       <c r="S3" s="3" t="str">
-        <f t="shared" ref="S2:S33" si="0">LEFT(H2, LEN(H2)-2)</f>
+        <f t="shared" ref="S3:S33" si="0">LEFT(H2, LEN(H2)-2)</f>
         <v>30.0615</v>
       </c>
       <c r="T3" s="3" t="str">
-        <f t="shared" ref="T2:T33" si="1">LEFT(F2, LEN(F2)-2)</f>
+        <f t="shared" ref="T3:T33" si="1">LEFT(F2, LEN(F2)-2)</f>
         <v>31.34782833333333</v>
       </c>
     </row>
